--- a/URL Checker.xlsx
+++ b/URL Checker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\D2C Checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ParallelProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF90CD-9C64-43C7-AA08-7968ADB03DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8A6C4-B747-42DC-8861-61157EADDFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,55 +20,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Site URL</t>
   </si>
   <si>
-    <t>http://www.triderma.com</t>
-  </si>
-  <si>
-    <t>http://www.truelark.com</t>
-  </si>
-  <si>
-    <t>http://www.tryndbuy.com</t>
-  </si>
-  <si>
-    <t>http://www.usjaclean.com</t>
-  </si>
-  <si>
-    <t>http://www.ultramedicals.com</t>
-  </si>
-  <si>
-    <t>http://www.upkeepbeauty.com</t>
-  </si>
-  <si>
-    <t>http://www.uprisemgmt.com</t>
-  </si>
-  <si>
-    <t>http://www.vacation.inc</t>
-  </si>
-  <si>
-    <t>http://www.vanillafromtahiti.com</t>
-  </si>
-  <si>
-    <t>http://www.visitandcare.com</t>
-  </si>
-  <si>
-    <t>http://www.walnutcreekdental.net</t>
-  </si>
-  <si>
-    <t>http://www.waxelene.com</t>
-  </si>
-  <si>
-    <t>http://www.wesave.com</t>
+    <t>http://www.amkinggroup.com</t>
+  </si>
+  <si>
+    <t>http://www.alafairbiosciences.com</t>
+  </si>
+  <si>
+    <t>http://www.alltechllc.com</t>
+  </si>
+  <si>
+    <t>http://www.alturaengineering.com</t>
+  </si>
+  <si>
+    <t>http://www.amarilloedc.com</t>
+  </si>
+  <si>
+    <t>http://www.herbalgram.org</t>
+  </si>
+  <si>
+    <t>http://www.atlanticblowers.com</t>
+  </si>
+  <si>
+    <t>http://www.bioenergydevco.com</t>
+  </si>
+  <si>
+    <t>http://www.blogilates.com</t>
+  </si>
+  <si>
+    <t>http://www.boxerretail.com</t>
+  </si>
+  <si>
+    <t>http://www.cantupestcontrol.com</t>
+  </si>
+  <si>
+    <t>http://www.cocoatown.com</t>
+  </si>
+  <si>
+    <t>http://www.coniferre.com</t>
+  </si>
+  <si>
+    <t>http://www.connexfm.com</t>
+  </si>
+  <si>
+    <t>http://www.coolerx.com</t>
+  </si>
+  <si>
+    <t>http://www.db2re.com</t>
+  </si>
+  <si>
+    <t>http://www.getduckbill.com</t>
+  </si>
+  <si>
+    <t>http://www.ecomarketingsolutions.com</t>
+  </si>
+  <si>
+    <t>http://www.epoxydesign.com</t>
+  </si>
+  <si>
+    <t>http://www.friscofamilyservices.org</t>
+  </si>
+  <si>
+    <t>http://www.ftssol.com</t>
+  </si>
+  <si>
+    <t>http://www.fulcrumsa.com</t>
+  </si>
+  <si>
+    <t>http://www.grocerytv.com</t>
+  </si>
+  <si>
+    <t>http://www.heavenlycaregivers.com</t>
+  </si>
+  <si>
+    <t>http://www.mini-mart.com</t>
+  </si>
+  <si>
+    <t>http://www.holdenbags.com</t>
+  </si>
+  <si>
+    <t>http://www.eatinnovasian.com</t>
+  </si>
+  <si>
+    <t>http://www.jubileecenter.org</t>
+  </si>
+  <si>
+    <t>http://www.kitchenpride.com</t>
+  </si>
+  <si>
+    <t>http://www.legionathletics.com</t>
+  </si>
+  <si>
+    <t>http://www.mcifoods.com</t>
+  </si>
+  <si>
+    <t>http://www.moleaer.com</t>
+  </si>
+  <si>
+    <t>http://www.natran.com</t>
+  </si>
+  <si>
+    <t>http://www.naturalepicurean.com</t>
+  </si>
+  <si>
+    <t>http://www.natural-habitats.com</t>
+  </si>
+  <si>
+    <t>http://www.nighthawkfoods.com</t>
+  </si>
+  <si>
+    <t>http://www.seniormeals.org</t>
+  </si>
+  <si>
+    <t>http://www.odysseyrf.com</t>
+  </si>
+  <si>
+    <t>http://www.pacificfarms.com</t>
+  </si>
+  <si>
+    <t>http://www.passionatepennypincher.com</t>
+  </si>
+  <si>
+    <t>http://www.pegasusfoodsinc.com</t>
+  </si>
+  <si>
+    <t>http://www.personaltrainerfood.com</t>
+  </si>
+  <si>
+    <t>http://www.phoeniciafoods.com</t>
+  </si>
+  <si>
+    <t>http://www.pipedreamlabs.co</t>
+  </si>
+  <si>
+    <t>http://www.plainsdairy.com</t>
+  </si>
+  <si>
+    <t>http://www.proplasticsinc.com</t>
+  </si>
+  <si>
+    <t>http://www.psiurethanes.com</t>
+  </si>
+  <si>
+    <t>http://www.rheom.com</t>
+  </si>
+  <si>
+    <t>http://www.rockwalledc.com</t>
+  </si>
+  <si>
+    <t>http://www.roland-realty.com</t>
+  </si>
+  <si>
+    <t>http://www.specialtyfoodpartners.com</t>
+  </si>
+  <si>
+    <t>http://www.simberobotics.com</t>
+  </si>
+  <si>
+    <t>http://www.solais.com</t>
+  </si>
+  <si>
+    <t>http://www.specialtypackaging.net</t>
+  </si>
+  <si>
+    <t>http://www.spiriti.com</t>
+  </si>
+  <si>
+    <t>http://www.starbrokerage.com</t>
+  </si>
+  <si>
+    <t>http://www.sundanceconstructioncompany.com</t>
+  </si>
+  <si>
+    <t>http://www.texas-wholesale.com</t>
+  </si>
+  <si>
+    <t>http://www.fricksco.com</t>
+  </si>
+  <si>
+    <t>http://www.rainiercompanies.com</t>
+  </si>
+  <si>
+    <t>http://www.thesurvivalpodcast.com</t>
+  </si>
+  <si>
+    <t>http://www.valleycold.com</t>
+  </si>
+  <si>
+    <t>http://www.versacor.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,24 +229,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,27 +275,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,660 +600,3210 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A200"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
     </row>
-    <row r="67" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
     </row>
-    <row r="86" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
     </row>
-    <row r="88" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
     </row>
-    <row r="90" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
     </row>
-    <row r="91" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
     </row>
-    <row r="92" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
     </row>
-    <row r="93" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
     </row>
-    <row r="94" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
     </row>
-    <row r="99" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
     </row>
-    <row r="100" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
     </row>
-    <row r="102" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
-    </row>
-    <row r="116" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
-    </row>
-    <row r="118" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
-    </row>
-    <row r="119" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
-    </row>
-    <row r="120" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3"/>
-    </row>
-    <row r="122" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-    </row>
-    <row r="124" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-    </row>
-    <row r="126" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A801" s="4"/>
+    </row>
+    <row r="802" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A802" s="4"/>
+    </row>
+    <row r="803" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A803" s="4"/>
+    </row>
+    <row r="804" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A804" s="4"/>
+    </row>
+    <row r="805" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A805" s="4"/>
+    </row>
+    <row r="806" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A806" s="4"/>
+    </row>
+    <row r="807" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A807" s="4"/>
+    </row>
+    <row r="808" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A808" s="4"/>
+    </row>
+    <row r="809" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A809" s="4"/>
+    </row>
+    <row r="810" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A810" s="4"/>
+    </row>
+    <row r="811" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A811" s="4"/>
+    </row>
+    <row r="812" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A812" s="4"/>
+    </row>
+    <row r="813" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A813" s="4"/>
+    </row>
+    <row r="814" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A814" s="4"/>
+    </row>
+    <row r="815" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A815" s="4"/>
+    </row>
+    <row r="816" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A816" s="4"/>
+    </row>
+    <row r="817" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A817" s="4"/>
+    </row>
+    <row r="818" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A818" s="4"/>
+    </row>
+    <row r="819" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A819" s="4"/>
+    </row>
+    <row r="820" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A820" s="4"/>
+    </row>
+    <row r="821" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A821" s="4"/>
+    </row>
+    <row r="822" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A822" s="4"/>
+    </row>
+    <row r="823" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A823" s="4"/>
+    </row>
+    <row r="824" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A824" s="4"/>
+    </row>
+    <row r="825" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A825" s="4"/>
+    </row>
+    <row r="826" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A826" s="4"/>
+    </row>
+    <row r="827" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A827" s="4"/>
+    </row>
+    <row r="828" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A828" s="4"/>
+    </row>
+    <row r="829" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A829" s="4"/>
+    </row>
+    <row r="830" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A830" s="4"/>
+    </row>
+    <row r="831" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A831" s="4"/>
+    </row>
+    <row r="832" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A832" s="4"/>
+    </row>
+    <row r="833" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A833" s="4"/>
+    </row>
+    <row r="834" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A834" s="4"/>
+    </row>
+    <row r="835" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A835" s="4"/>
+    </row>
+    <row r="836" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A836" s="4"/>
+    </row>
+    <row r="837" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A837" s="4"/>
+    </row>
+    <row r="838" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A838" s="4"/>
+    </row>
+    <row r="839" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A839" s="4"/>
+    </row>
+    <row r="840" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A840" s="4"/>
+    </row>
+    <row r="841" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A841" s="4"/>
+    </row>
+    <row r="842" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A842" s="4"/>
+    </row>
+    <row r="843" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A843" s="4"/>
+    </row>
+    <row r="844" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A844" s="4"/>
+    </row>
+    <row r="845" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A845" s="4"/>
+    </row>
+    <row r="846" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A846" s="4"/>
+    </row>
+    <row r="847" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A847" s="4"/>
+    </row>
+    <row r="848" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A848" s="4"/>
+    </row>
+    <row r="849" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A849" s="4"/>
+    </row>
+    <row r="850" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A850" s="4"/>
+    </row>
+    <row r="851" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A851" s="4"/>
+    </row>
+    <row r="852" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A852" s="4"/>
+    </row>
+    <row r="853" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A853" s="4"/>
+    </row>
+    <row r="854" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A854" s="4"/>
+    </row>
+    <row r="855" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A855" s="4"/>
+    </row>
+    <row r="856" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A856" s="4"/>
+    </row>
+    <row r="857" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A857" s="4"/>
+    </row>
+    <row r="858" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A858" s="4"/>
+    </row>
+    <row r="859" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A859" s="4"/>
+    </row>
+    <row r="860" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A860" s="4"/>
+    </row>
+    <row r="861" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A861" s="4"/>
+    </row>
+    <row r="862" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A862" s="4"/>
+    </row>
+    <row r="863" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A863" s="4"/>
+    </row>
+    <row r="864" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A864" s="4"/>
+    </row>
+    <row r="865" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A865" s="4"/>
+    </row>
+    <row r="866" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A866" s="4"/>
+    </row>
+    <row r="867" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A867" s="4"/>
+    </row>
+    <row r="868" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A868" s="4"/>
+    </row>
+    <row r="869" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A869" s="4"/>
+    </row>
+    <row r="870" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A870" s="4"/>
+    </row>
+    <row r="871" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A871" s="4"/>
+    </row>
+    <row r="872" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A872" s="4"/>
+    </row>
+    <row r="873" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A873" s="4"/>
+    </row>
+    <row r="874" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A874" s="4"/>
+    </row>
+    <row r="875" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A875" s="4"/>
+    </row>
+    <row r="876" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A876" s="4"/>
+    </row>
+    <row r="877" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A877" s="4"/>
+    </row>
+    <row r="878" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A878" s="4"/>
+    </row>
+    <row r="879" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A879" s="4"/>
+    </row>
+    <row r="880" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A880" s="4"/>
+    </row>
+    <row r="881" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A881" s="4"/>
+    </row>
+    <row r="882" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A882" s="4"/>
+    </row>
+    <row r="883" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A883" s="4"/>
+    </row>
+    <row r="884" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A884" s="4"/>
+    </row>
+    <row r="885" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A885" s="4"/>
+    </row>
+    <row r="886" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A886" s="4"/>
+    </row>
+    <row r="887" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A887" s="4"/>
+    </row>
+    <row r="888" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A888" s="4"/>
+    </row>
+    <row r="889" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A889" s="4"/>
+    </row>
+    <row r="890" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A890" s="4"/>
+    </row>
+    <row r="891" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A891" s="4"/>
+    </row>
+    <row r="892" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A892" s="4"/>
+    </row>
+    <row r="893" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A893" s="4"/>
+    </row>
+    <row r="894" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A894" s="4"/>
+    </row>
+    <row r="895" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A895" s="4"/>
+    </row>
+    <row r="896" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A896" s="4"/>
+    </row>
+    <row r="897" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A897" s="4"/>
+    </row>
+    <row r="898" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A898" s="4"/>
+    </row>
+    <row r="899" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A899" s="4"/>
+    </row>
+    <row r="900" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A900" s="4"/>
+    </row>
+    <row r="901" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A901" s="4"/>
+    </row>
+    <row r="902" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A902" s="4"/>
+    </row>
+    <row r="903" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A903" s="4"/>
+    </row>
+    <row r="904" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A904" s="4"/>
+    </row>
+    <row r="905" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A905" s="4"/>
+    </row>
+    <row r="906" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A906" s="4"/>
+    </row>
+    <row r="907" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A907" s="4"/>
+    </row>
+    <row r="908" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A908" s="4"/>
+    </row>
+    <row r="909" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A909" s="4"/>
+    </row>
+    <row r="910" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A910" s="4"/>
+    </row>
+    <row r="911" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A911" s="4"/>
+    </row>
+    <row r="912" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A912" s="4"/>
+    </row>
+    <row r="913" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A913" s="4"/>
+    </row>
+    <row r="914" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A914" s="4"/>
+    </row>
+    <row r="915" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A915" s="4"/>
+    </row>
+    <row r="916" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A916" s="4"/>
+    </row>
+    <row r="917" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A917" s="4"/>
+    </row>
+    <row r="918" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A918" s="4"/>
+    </row>
+    <row r="919" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A919" s="4"/>
+    </row>
+    <row r="920" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A920" s="4"/>
+    </row>
+    <row r="921" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A921" s="4"/>
+    </row>
+    <row r="922" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A922" s="4"/>
+    </row>
+    <row r="923" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A923" s="4"/>
+    </row>
+    <row r="924" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A924" s="4"/>
+    </row>
+    <row r="925" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A925" s="4"/>
+    </row>
+    <row r="926" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A926" s="4"/>
+    </row>
+    <row r="927" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A927" s="4"/>
+    </row>
+    <row r="928" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A928" s="4"/>
+    </row>
+    <row r="929" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A929" s="4"/>
+    </row>
+    <row r="930" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A930" s="4"/>
+    </row>
+    <row r="931" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A931" s="4"/>
+    </row>
+    <row r="932" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A932" s="4"/>
+    </row>
+    <row r="933" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A933" s="4"/>
+    </row>
+    <row r="934" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A934" s="4"/>
+    </row>
+    <row r="935" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A935" s="4"/>
+    </row>
+    <row r="936" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A936" s="4"/>
+    </row>
+    <row r="937" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A937" s="4"/>
+    </row>
+    <row r="938" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A938" s="4"/>
+    </row>
+    <row r="939" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A939" s="4"/>
+    </row>
+    <row r="940" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A940" s="4"/>
+    </row>
+    <row r="941" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A941" s="4"/>
+    </row>
+    <row r="942" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A942" s="4"/>
+    </row>
+    <row r="943" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A943" s="4"/>
+    </row>
+    <row r="944" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A944" s="4"/>
+    </row>
+    <row r="945" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A945" s="4"/>
+    </row>
+    <row r="946" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A946" s="4"/>
+    </row>
+    <row r="947" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A947" s="4"/>
+    </row>
+    <row r="948" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A948" s="4"/>
+    </row>
+    <row r="949" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A949" s="4"/>
+    </row>
+    <row r="950" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A950" s="4"/>
+    </row>
+    <row r="951" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A951" s="4"/>
+    </row>
+    <row r="952" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A952" s="4"/>
+    </row>
+    <row r="953" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A953" s="4"/>
+    </row>
+    <row r="954" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A954" s="4"/>
+    </row>
+    <row r="955" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A955" s="4"/>
+    </row>
+    <row r="956" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A956" s="4"/>
+    </row>
+    <row r="957" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A957" s="4"/>
+    </row>
+    <row r="958" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A958" s="4"/>
+    </row>
+    <row r="959" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A959" s="4"/>
+    </row>
+    <row r="960" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A960" s="4"/>
+    </row>
+    <row r="961" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A961" s="4"/>
+    </row>
+    <row r="962" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A962" s="4"/>
+    </row>
+    <row r="963" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A963" s="4"/>
+    </row>
+    <row r="964" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A964" s="4"/>
+    </row>
+    <row r="965" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A965" s="4"/>
+    </row>
+    <row r="966" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A966" s="4"/>
+    </row>
+    <row r="967" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A967" s="4"/>
+    </row>
+    <row r="968" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A968" s="4"/>
+    </row>
+    <row r="969" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A969" s="4"/>
+    </row>
+    <row r="970" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A970" s="4"/>
+    </row>
+    <row r="971" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A971" s="4"/>
+    </row>
+    <row r="972" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A972" s="4"/>
+    </row>
+    <row r="973" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A973" s="4"/>
+    </row>
+    <row r="974" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A974" s="4"/>
+    </row>
+    <row r="975" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A975" s="4"/>
+    </row>
+    <row r="976" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A976" s="4"/>
+    </row>
+    <row r="977" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A977" s="4"/>
+    </row>
+    <row r="978" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A978" s="4"/>
+    </row>
+    <row r="979" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A979" s="4"/>
+    </row>
+    <row r="980" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A980" s="4"/>
+    </row>
+    <row r="981" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A981" s="4"/>
+    </row>
+    <row r="982" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A982" s="4"/>
+    </row>
+    <row r="983" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A983" s="4"/>
+    </row>
+    <row r="984" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A984" s="4"/>
+    </row>
+    <row r="985" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A985" s="4"/>
+    </row>
+    <row r="986" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A986" s="4"/>
+    </row>
+    <row r="987" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A987" s="4"/>
+    </row>
+    <row r="988" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A988" s="4"/>
+    </row>
+    <row r="989" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A989" s="4"/>
+    </row>
+    <row r="990" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A990" s="4"/>
+    </row>
+    <row r="991" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A991" s="4"/>
+    </row>
+    <row r="992" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A992" s="4"/>
+    </row>
+    <row r="993" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A993" s="4"/>
+    </row>
+    <row r="994" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A994" s="4"/>
+    </row>
+    <row r="995" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A995" s="4"/>
+    </row>
+    <row r="996" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A996" s="4"/>
+    </row>
+    <row r="997" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A997" s="4"/>
+    </row>
+    <row r="998" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A998" s="4"/>
+    </row>
+    <row r="999" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A999" s="4"/>
+    </row>
+    <row r="1000" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.triderma.com/" xr:uid="{10D868E0-C092-43FD-87C9-4EB2EE24FA1E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.truelark.com/" xr:uid="{1F6FB5D8-CE46-4410-9A6C-328A052EF2F7}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.tryndbuy.com/" xr:uid="{F2C623C4-40BB-4816-83F7-AB3BC0158965}"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://www.usjaclean.com/" xr:uid="{FABDEF36-D4A2-44E8-B65D-4624C778987F}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.ultramedicals.com/" xr:uid="{15B736EE-A6DC-4F88-92CE-31E4ABD667F1}"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://www.upkeepbeauty.com/" xr:uid="{0981A946-97F7-4E3D-B39A-67D66F15F781}"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://www.uprisemgmt.com/" xr:uid="{0507A069-6579-49E4-B4F2-51AFA50F6999}"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://www.vacation.inc/" xr:uid="{93AE414D-C3BB-4C68-9659-143BF7E71162}"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://www.vanillafromtahiti.com/" xr:uid="{65254202-D637-40C3-8969-B2CE1AA02793}"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://www.visitandcare.com/" xr:uid="{52FF1BA5-597F-4C15-A03B-1C08F3DE6171}"/>
-    <hyperlink ref="A12" r:id="rId11" display="http://www.walnutcreekdental.net/" xr:uid="{6C31A1BF-693F-4DCE-BF39-79E126FD126F}"/>
-    <hyperlink ref="A13" r:id="rId12" display="http://www.waxelene.com/" xr:uid="{76412B7F-B02A-4DEC-9A5C-8BF399085529}"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://www.wesave.com/" xr:uid="{349612BD-CF41-4562-8053-D74336E01FAB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.amkinggroup.com/" xr:uid="{63FB7042-6DA4-4221-9E2D-39E284B8E567}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.alafairbiosciences.com/" xr:uid="{C79F353B-2EFD-4822-8994-0D8AC2E175DC}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.alltechllc.com/" xr:uid="{75A51600-DFE1-43D4-806C-0329BB30BD9C}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.alturaengineering.com/" xr:uid="{1AB735C3-26B9-4392-B08B-2D4A0AD1C4D6}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.amarilloedc.com/" xr:uid="{5ACCD279-A721-4853-B14B-BF8696F7E1DF}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.herbalgram.org/" xr:uid="{5B36A302-F060-42CC-BD37-413DA44CEB24}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.atlanticblowers.com/" xr:uid="{35FF6CB3-0A7C-4AF9-B66D-506CC2D68F6C}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.bioenergydevco.com/" xr:uid="{C17EF1EF-6615-4886-97D2-39506383BE22}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.blogilates.com/" xr:uid="{CF29EA88-D7D2-4462-8BDA-7B14CCE64265}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.boxerretail.com/" xr:uid="{C67D2C13-89B1-4FE2-B84C-AD5AF8DC72C3}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.cantupestcontrol.com/" xr:uid="{84C6EC00-78DF-4F55-831B-0E91CAA5CD14}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.cocoatown.com/" xr:uid="{6B252CED-ECEC-4EA4-862A-D59E2F31E41C}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.coniferre.com/" xr:uid="{7CC6DCCE-B2C7-4330-81CF-EB7E494AB26D}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.connexfm.com/" xr:uid="{3084E10E-B7B5-4134-9AAB-621A9EBE0A96}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.coolerx.com/" xr:uid="{CD30E84E-7B85-4D74-BD0B-0E64DB18450E}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.db2re.com/" xr:uid="{0DA01E60-DE7A-4289-ABA9-66C37CABC8FD}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.getduckbill.com/" xr:uid="{453E493D-627D-44C3-A274-C6F4081D9EA1}"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.ecomarketingsolutions.com/" xr:uid="{93815840-D483-45AA-9D11-53A06585A014}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.epoxydesign.com/" xr:uid="{94695C90-DD28-4F9A-AA5A-E734F38B0203}"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.friscofamilyservices.org/" xr:uid="{047BCD6E-2A97-44EA-87B4-448F883AFAA4}"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://www.ftssol.com/" xr:uid="{C3F1EB74-84A8-448F-A4B0-8573DCF57C3B}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://www.fulcrumsa.com/" xr:uid="{A03AA880-951C-4C7D-8933-A88D49756198}"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.grocerytv.com/" xr:uid="{604D9FE7-D920-4FD4-B6B1-247FA7AF0A1C}"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://www.heavenlycaregivers.com/" xr:uid="{2373FAE6-4F0D-44F9-A2B2-D781406E92C1}"/>
+    <hyperlink ref="A26" r:id="rId25" display="http://www.mini-mart.com/" xr:uid="{0C84EDC6-DE56-4C8D-8B30-9A5BCAD1B1FE}"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://www.holdenbags.com/" xr:uid="{A924365E-3C4C-4DF5-B128-B9076F9196A6}"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://www.eatinnovasian.com/" xr:uid="{BE459FEB-2174-4ED5-90AC-3899E34AA695}"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.jubileecenter.org/" xr:uid="{9D0CEB59-62E4-445D-A88F-8AEE25AFA590}"/>
+    <hyperlink ref="A30" r:id="rId29" display="http://www.kitchenpride.com/" xr:uid="{1457E788-4CB3-4922-9B05-4000E0C3B90E}"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://www.legionathletics.com/" xr:uid="{FD8264AB-26C7-4812-9B10-5A723709DA7B}"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://www.mcifoods.com/" xr:uid="{C8CC07DE-934C-4BE4-BE87-765C61E947ED}"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://www.moleaer.com/" xr:uid="{8A36BE6E-6A28-46E4-A5ED-7319FB937516}"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://www.natran.com/" xr:uid="{5A6952DD-32AA-4AC1-BA41-395A8A485F38}"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://www.naturalepicurean.com/" xr:uid="{D705D332-C8CC-48AF-BA3A-D7A83DBD812D}"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://www.natural-habitats.com/" xr:uid="{6C0524CE-C981-4E77-B2DE-6A3858D7F4E6}"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://www.nighthawkfoods.com/" xr:uid="{9287946B-D015-4875-ACB3-013916A4EA28}"/>
+    <hyperlink ref="A38" r:id="rId37" display="http://www.seniormeals.org/" xr:uid="{E7B0F000-C75D-4C33-9AB6-CC73F8EDF6EC}"/>
+    <hyperlink ref="A39" r:id="rId38" display="http://www.odysseyrf.com/" xr:uid="{119BDCFF-15DA-4432-AF4D-2C8D8E2E979D}"/>
+    <hyperlink ref="A40" r:id="rId39" display="http://www.pacificfarms.com/" xr:uid="{16AB4FEA-8264-4DB2-9F35-445849AC4C09}"/>
+    <hyperlink ref="A41" r:id="rId40" display="http://www.passionatepennypincher.com/" xr:uid="{3E3B1C95-8279-4AD1-A3B6-BDC3FF2BF864}"/>
+    <hyperlink ref="A42" r:id="rId41" display="http://www.pegasusfoodsinc.com/" xr:uid="{0272A1AE-AD60-46E3-964C-444030740DDC}"/>
+    <hyperlink ref="A43" r:id="rId42" display="http://www.personaltrainerfood.com/" xr:uid="{D6573257-AB42-4058-A43D-F7A0B29444FF}"/>
+    <hyperlink ref="A44" r:id="rId43" display="http://www.phoeniciafoods.com/" xr:uid="{B07D90A6-9406-4B87-98A0-53E0942DA153}"/>
+    <hyperlink ref="A45" r:id="rId44" display="http://www.pipedreamlabs.co/" xr:uid="{7BB124E1-5540-4645-9B80-51F2F90888F2}"/>
+    <hyperlink ref="A46" r:id="rId45" display="http://www.plainsdairy.com/" xr:uid="{BD60D88A-09AD-4EEB-A6B2-DCDF4271E74D}"/>
+    <hyperlink ref="A47" r:id="rId46" display="http://www.proplasticsinc.com/" xr:uid="{DB9F139D-C5E6-4F94-8F36-64DCA670B2DD}"/>
+    <hyperlink ref="A48" r:id="rId47" display="http://www.psiurethanes.com/" xr:uid="{86F5CD2C-7781-498E-9A7C-EF10258F846E}"/>
+    <hyperlink ref="A49" r:id="rId48" display="http://www.rheom.com/" xr:uid="{1C20C989-9C0D-4464-9830-5809FAD71BD0}"/>
+    <hyperlink ref="A50" r:id="rId49" display="http://www.rockwalledc.com/" xr:uid="{6C76B08A-3846-4FDC-9A54-749A03AFBCC4}"/>
+    <hyperlink ref="A51" r:id="rId50" display="http://www.roland-realty.com/" xr:uid="{58D385D3-35D7-46B2-9246-39976E5E1511}"/>
+    <hyperlink ref="A52" r:id="rId51" display="http://www.specialtyfoodpartners.com/" xr:uid="{D34FF602-E728-481A-A364-9CC54EEF25BA}"/>
+    <hyperlink ref="A53" r:id="rId52" display="http://www.simberobotics.com/" xr:uid="{C8C18EDD-8AEF-480A-8137-2ED8EE087F73}"/>
+    <hyperlink ref="A54" r:id="rId53" display="http://www.solais.com/" xr:uid="{763C608E-CF16-4F28-A31B-415B61E804DF}"/>
+    <hyperlink ref="A55" r:id="rId54" display="http://www.specialtypackaging.net/" xr:uid="{4BB9A306-CDE1-4C51-9A44-6DEB376B974A}"/>
+    <hyperlink ref="A56" r:id="rId55" display="http://www.spiriti.com/" xr:uid="{7D6BBCD1-EB9E-40B0-9F9F-4F299061D510}"/>
+    <hyperlink ref="A57" r:id="rId56" display="http://www.starbrokerage.com/" xr:uid="{F043512B-88FB-40AE-8CFB-559B0306BFF6}"/>
+    <hyperlink ref="A58" r:id="rId57" display="http://www.sundanceconstructioncompany.com/" xr:uid="{44425AAB-478E-48FA-9F97-B0D3C146E71C}"/>
+    <hyperlink ref="A59" r:id="rId58" display="http://www.texas-wholesale.com/" xr:uid="{E2A50D20-A057-4A28-B741-59D6A1A9E4F6}"/>
+    <hyperlink ref="A60" r:id="rId59" display="http://www.fricksco.com/" xr:uid="{9ED08AE0-E3C5-4D6C-96F1-45C75380EAA1}"/>
+    <hyperlink ref="A61" r:id="rId60" display="http://www.rainiercompanies.com/" xr:uid="{34D17A44-E6E3-47C7-896E-E01E3E00560A}"/>
+    <hyperlink ref="A62" r:id="rId61" display="http://www.thesurvivalpodcast.com/" xr:uid="{67591496-4D8F-4902-BD58-93E6F49C8409}"/>
+    <hyperlink ref="A63" r:id="rId62" display="http://www.valleycold.com/" xr:uid="{FDED28D9-F833-4393-9F2F-012FE497A93D}"/>
+    <hyperlink ref="A64" r:id="rId63" display="http://www.versacor.com/" xr:uid="{F054F389-9963-410A-AF2F-46B087F0B548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/URL Checker.xlsx
+++ b/URL Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ParallelProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8A6C4-B747-42DC-8861-61157EADDFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2A6F5-4C89-4A5D-AA33-BB596A72B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,198 +20,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Site URL</t>
   </si>
   <si>
-    <t>http://www.amkinggroup.com</t>
-  </si>
-  <si>
-    <t>http://www.alafairbiosciences.com</t>
-  </si>
-  <si>
-    <t>http://www.alltechllc.com</t>
-  </si>
-  <si>
-    <t>http://www.alturaengineering.com</t>
-  </si>
-  <si>
-    <t>http://www.amarilloedc.com</t>
-  </si>
-  <si>
-    <t>http://www.herbalgram.org</t>
-  </si>
-  <si>
-    <t>http://www.atlanticblowers.com</t>
-  </si>
-  <si>
-    <t>http://www.bioenergydevco.com</t>
-  </si>
-  <si>
-    <t>http://www.blogilates.com</t>
-  </si>
-  <si>
-    <t>http://www.boxerretail.com</t>
-  </si>
-  <si>
-    <t>http://www.cantupestcontrol.com</t>
-  </si>
-  <si>
-    <t>http://www.cocoatown.com</t>
-  </si>
-  <si>
-    <t>http://www.coniferre.com</t>
-  </si>
-  <si>
-    <t>http://www.connexfm.com</t>
-  </si>
-  <si>
-    <t>http://www.coolerx.com</t>
-  </si>
-  <si>
-    <t>http://www.db2re.com</t>
-  </si>
-  <si>
-    <t>http://www.getduckbill.com</t>
-  </si>
-  <si>
-    <t>http://www.ecomarketingsolutions.com</t>
-  </si>
-  <si>
-    <t>http://www.epoxydesign.com</t>
-  </si>
-  <si>
-    <t>http://www.friscofamilyservices.org</t>
-  </si>
-  <si>
-    <t>http://www.ftssol.com</t>
-  </si>
-  <si>
-    <t>http://www.fulcrumsa.com</t>
-  </si>
-  <si>
-    <t>http://www.grocerytv.com</t>
-  </si>
-  <si>
-    <t>http://www.heavenlycaregivers.com</t>
-  </si>
-  <si>
-    <t>http://www.mini-mart.com</t>
-  </si>
-  <si>
-    <t>http://www.holdenbags.com</t>
-  </si>
-  <si>
-    <t>http://www.eatinnovasian.com</t>
-  </si>
-  <si>
-    <t>http://www.jubileecenter.org</t>
-  </si>
-  <si>
-    <t>http://www.kitchenpride.com</t>
-  </si>
-  <si>
-    <t>http://www.legionathletics.com</t>
-  </si>
-  <si>
-    <t>http://www.mcifoods.com</t>
-  </si>
-  <si>
-    <t>http://www.moleaer.com</t>
-  </si>
-  <si>
-    <t>http://www.natran.com</t>
-  </si>
-  <si>
-    <t>http://www.naturalepicurean.com</t>
-  </si>
-  <si>
-    <t>http://www.natural-habitats.com</t>
-  </si>
-  <si>
-    <t>http://www.nighthawkfoods.com</t>
-  </si>
-  <si>
-    <t>http://www.seniormeals.org</t>
-  </si>
-  <si>
-    <t>http://www.odysseyrf.com</t>
-  </si>
-  <si>
-    <t>http://www.pacificfarms.com</t>
-  </si>
-  <si>
-    <t>http://www.passionatepennypincher.com</t>
-  </si>
-  <si>
-    <t>http://www.pegasusfoodsinc.com</t>
-  </si>
-  <si>
-    <t>http://www.personaltrainerfood.com</t>
-  </si>
-  <si>
-    <t>http://www.phoeniciafoods.com</t>
-  </si>
-  <si>
-    <t>http://www.pipedreamlabs.co</t>
-  </si>
-  <si>
-    <t>http://www.plainsdairy.com</t>
-  </si>
-  <si>
-    <t>http://www.proplasticsinc.com</t>
-  </si>
-  <si>
-    <t>http://www.psiurethanes.com</t>
-  </si>
-  <si>
-    <t>http://www.rheom.com</t>
-  </si>
-  <si>
-    <t>http://www.rockwalledc.com</t>
-  </si>
-  <si>
-    <t>http://www.roland-realty.com</t>
-  </si>
-  <si>
-    <t>http://www.specialtyfoodpartners.com</t>
-  </si>
-  <si>
-    <t>http://www.simberobotics.com</t>
-  </si>
-  <si>
-    <t>http://www.solais.com</t>
-  </si>
-  <si>
-    <t>http://www.specialtypackaging.net</t>
-  </si>
-  <si>
-    <t>http://www.spiriti.com</t>
-  </si>
-  <si>
-    <t>http://www.starbrokerage.com</t>
-  </si>
-  <si>
-    <t>http://www.sundanceconstructioncompany.com</t>
-  </si>
-  <si>
-    <t>http://www.texas-wholesale.com</t>
-  </si>
-  <si>
-    <t>http://www.fricksco.com</t>
-  </si>
-  <si>
-    <t>http://www.rainiercompanies.com</t>
-  </si>
-  <si>
-    <t>http://www.thesurvivalpodcast.com</t>
-  </si>
-  <si>
-    <t>http://www.valleycold.com</t>
-  </si>
-  <si>
-    <t>http://www.versacor.com</t>
+    <t>https://welcomebabyusa.org</t>
+  </si>
+  <si>
+    <t>https://weirdsistersfreakboutique.com</t>
+  </si>
+  <si>
+    <t>https://wetpeachswimwear.com</t>
+  </si>
+  <si>
+    <t>https://wexist.com</t>
+  </si>
+  <si>
+    <t>https://westernwelderoutfitting.com</t>
+  </si>
+  <si>
+    <t>https://wellbredonline.com</t>
+  </si>
+  <si>
+    <t>https://whensmokeclears.com</t>
+  </si>
+  <si>
+    <t>https://weworewhat.com</t>
+  </si>
+  <si>
+    <t>https://whatsyourhustle.com</t>
+  </si>
+  <si>
+    <t>https://wethepeopleholsters.com</t>
+  </si>
+  <si>
+    <t>https://westxeast.com</t>
+  </si>
+  <si>
+    <t>https://wellspringinterfaith.org</t>
+  </si>
+  <si>
+    <t>https://weestees.com</t>
+  </si>
+  <si>
+    <t>https://westernprotectivesolutions.com</t>
+  </si>
+  <si>
+    <t>https://wrenglory.com</t>
+  </si>
+  <si>
+    <t>https://whitelabelmfg.com</t>
+  </si>
+  <si>
+    <t>https://wisetailor.com</t>
+  </si>
+  <si>
+    <t>https://whitesidesboots.com</t>
+  </si>
+  <si>
+    <t>https://daytontailor.com</t>
+  </si>
+  <si>
+    <t>https://wowserswebdesign.com</t>
+  </si>
+  <si>
+    <t>https://worldclassrenewables.com</t>
+  </si>
+  <si>
+    <t>https://willhelpu.com</t>
+  </si>
+  <si>
+    <t>https://worldclassclothing.com</t>
+  </si>
+  <si>
+    <t>https://wwsport.com</t>
+  </si>
+  <si>
+    <t>https://whitewolfmn.com</t>
+  </si>
+  <si>
+    <t>https://wintergreennorthernwear.com</t>
+  </si>
+  <si>
+    <t>https://willynillytrading.com</t>
+  </si>
+  <si>
+    <t>https://worlddanceapparel.com</t>
+  </si>
+  <si>
+    <t>https://wrappedinlove.com</t>
+  </si>
+  <si>
+    <t>https://wisetrailrunning.com</t>
+  </si>
+  <si>
+    <t>https://woofconcept.com</t>
+  </si>
+  <si>
+    <t>https://wornbrand.com</t>
+  </si>
+  <si>
+    <t>https://woodiesclothing.com</t>
+  </si>
+  <si>
+    <t>https://wuruwool.com</t>
+  </si>
+  <si>
+    <t>https://xhibition.com</t>
+  </si>
+  <si>
+    <t>https://yearofours.com</t>
+  </si>
+  <si>
+    <t>https://xangonurture.com</t>
+  </si>
+  <si>
+    <t>https://yella-activewear.com</t>
+  </si>
+  <si>
+    <t>https://trendia.co</t>
+  </si>
+  <si>
+    <t>https://wundersocks.com</t>
+  </si>
+  <si>
+    <t>https://ximonlee.com</t>
+  </si>
+  <si>
+    <t>https://yllwthelabel.com</t>
+  </si>
+  <si>
+    <t>https://wynwoodtailors.com</t>
+  </si>
+  <si>
+    <t>https://wubbiestudio.com</t>
+  </si>
+  <si>
+    <t>https://yomaui.com</t>
+  </si>
+  <si>
+    <t>https://yesweprint.com</t>
+  </si>
+  <si>
+    <t>https://shopwunderkind.com</t>
+  </si>
+  <si>
+    <t>https://yesterday.rip</t>
+  </si>
+  <si>
+    <t>https://wsisports.com</t>
+  </si>
+  <si>
+    <t>https://yalimilano.com</t>
+  </si>
+  <si>
+    <t>https://yogademocracy.com</t>
+  </si>
+  <si>
+    <t>https://xengaming.co</t>
+  </si>
+  <si>
+    <t>https://yardabraawd.com</t>
+  </si>
+  <si>
+    <t>https://shopyandi.com</t>
+  </si>
+  <si>
+    <t>https://y2house.com</t>
+  </si>
+  <si>
+    <t>https://yarashoemaker.com</t>
+  </si>
+  <si>
+    <t>https://yukaparis.fr</t>
+  </si>
+  <si>
+    <t>https://zerofoxtrot.com</t>
+  </si>
+  <si>
+    <t>https://zhilyova.com</t>
+  </si>
+  <si>
+    <t>https://yourhighnessclothing.com</t>
+  </si>
+  <si>
+    <t>https://ywca-gcr.org</t>
+  </si>
+  <si>
+    <t>https://zealousclothing.de</t>
+  </si>
+  <si>
+    <t>https://zebel.co.uk</t>
+  </si>
+  <si>
+    <t>https://zipease.com</t>
+  </si>
+  <si>
+    <t>https://yomismaclothing.com</t>
+  </si>
+  <si>
+    <t>https://yourmarkpromo.com</t>
+  </si>
+  <si>
+    <t>https://yiworks.com</t>
+  </si>
+  <si>
+    <t>https://yogarosa.com</t>
+  </si>
+  <si>
+    <t>https://yourshoppingdepot.com</t>
+  </si>
+  <si>
+    <t>https://yolocolorado.com</t>
+  </si>
+  <si>
+    <t>https://zearly.com</t>
+  </si>
+  <si>
+    <t>https://shopyouer.com</t>
+  </si>
+  <si>
+    <t>https://zcrave.com</t>
+  </si>
+  <si>
+    <t>https://zensah.com</t>
+  </si>
+  <si>
+    <t>https://zavate.company</t>
+  </si>
+  <si>
+    <t>https://zedd.net</t>
+  </si>
+  <si>
+    <t>https://zippileather.com</t>
+  </si>
+  <si>
+    <t>https://yogiiza.com</t>
+  </si>
+  <si>
+    <t>https://zesttorganics.com</t>
+  </si>
+  <si>
+    <t>https://zeusyunlimited.com</t>
+  </si>
+  <si>
+    <t>https://zzzs.art</t>
+  </si>
+  <si>
+    <t>https://zoic.com</t>
+  </si>
+  <si>
+    <t>https://zows.co</t>
+  </si>
+  <si>
+    <t>https://zonarch.com</t>
+  </si>
+  <si>
+    <t>https://zush.com.my</t>
   </si>
 </sst>
 </file>
@@ -602,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,115 +998,159 @@
       </c>
     </row>
     <row r="65" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
+      <c r="A74" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
+      <c r="A75" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
+      <c r="A76" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
+      <c r="A78" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
+      <c r="A79" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
+      <c r="A80" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3"/>
+      <c r="A81" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
+      <c r="A86" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
+      <c r="A91" s="5"/>
     </row>
     <row r="92" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
@@ -3741,69 +3851,91 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.amkinggroup.com/" xr:uid="{63FB7042-6DA4-4221-9E2D-39E284B8E567}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.alafairbiosciences.com/" xr:uid="{C79F353B-2EFD-4822-8994-0D8AC2E175DC}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.alltechllc.com/" xr:uid="{75A51600-DFE1-43D4-806C-0329BB30BD9C}"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://www.alturaengineering.com/" xr:uid="{1AB735C3-26B9-4392-B08B-2D4A0AD1C4D6}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.amarilloedc.com/" xr:uid="{5ACCD279-A721-4853-B14B-BF8696F7E1DF}"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://www.herbalgram.org/" xr:uid="{5B36A302-F060-42CC-BD37-413DA44CEB24}"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://www.atlanticblowers.com/" xr:uid="{35FF6CB3-0A7C-4AF9-B66D-506CC2D68F6C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://www.bioenergydevco.com/" xr:uid="{C17EF1EF-6615-4886-97D2-39506383BE22}"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://www.blogilates.com/" xr:uid="{CF29EA88-D7D2-4462-8BDA-7B14CCE64265}"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://www.boxerretail.com/" xr:uid="{C67D2C13-89B1-4FE2-B84C-AD5AF8DC72C3}"/>
-    <hyperlink ref="A12" r:id="rId11" display="http://www.cantupestcontrol.com/" xr:uid="{84C6EC00-78DF-4F55-831B-0E91CAA5CD14}"/>
-    <hyperlink ref="A13" r:id="rId12" display="http://www.cocoatown.com/" xr:uid="{6B252CED-ECEC-4EA4-862A-D59E2F31E41C}"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://www.coniferre.com/" xr:uid="{7CC6DCCE-B2C7-4330-81CF-EB7E494AB26D}"/>
-    <hyperlink ref="A15" r:id="rId14" display="http://www.connexfm.com/" xr:uid="{3084E10E-B7B5-4134-9AAB-621A9EBE0A96}"/>
-    <hyperlink ref="A16" r:id="rId15" display="http://www.coolerx.com/" xr:uid="{CD30E84E-7B85-4D74-BD0B-0E64DB18450E}"/>
-    <hyperlink ref="A17" r:id="rId16" display="http://www.db2re.com/" xr:uid="{0DA01E60-DE7A-4289-ABA9-66C37CABC8FD}"/>
-    <hyperlink ref="A18" r:id="rId17" display="http://www.getduckbill.com/" xr:uid="{453E493D-627D-44C3-A274-C6F4081D9EA1}"/>
-    <hyperlink ref="A19" r:id="rId18" display="http://www.ecomarketingsolutions.com/" xr:uid="{93815840-D483-45AA-9D11-53A06585A014}"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://www.epoxydesign.com/" xr:uid="{94695C90-DD28-4F9A-AA5A-E734F38B0203}"/>
-    <hyperlink ref="A21" r:id="rId20" display="http://www.friscofamilyservices.org/" xr:uid="{047BCD6E-2A97-44EA-87B4-448F883AFAA4}"/>
-    <hyperlink ref="A22" r:id="rId21" display="http://www.ftssol.com/" xr:uid="{C3F1EB74-84A8-448F-A4B0-8573DCF57C3B}"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://www.fulcrumsa.com/" xr:uid="{A03AA880-951C-4C7D-8933-A88D49756198}"/>
-    <hyperlink ref="A24" r:id="rId23" display="http://www.grocerytv.com/" xr:uid="{604D9FE7-D920-4FD4-B6B1-247FA7AF0A1C}"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://www.heavenlycaregivers.com/" xr:uid="{2373FAE6-4F0D-44F9-A2B2-D781406E92C1}"/>
-    <hyperlink ref="A26" r:id="rId25" display="http://www.mini-mart.com/" xr:uid="{0C84EDC6-DE56-4C8D-8B30-9A5BCAD1B1FE}"/>
-    <hyperlink ref="A27" r:id="rId26" display="http://www.holdenbags.com/" xr:uid="{A924365E-3C4C-4DF5-B128-B9076F9196A6}"/>
-    <hyperlink ref="A28" r:id="rId27" display="http://www.eatinnovasian.com/" xr:uid="{BE459FEB-2174-4ED5-90AC-3899E34AA695}"/>
-    <hyperlink ref="A29" r:id="rId28" display="http://www.jubileecenter.org/" xr:uid="{9D0CEB59-62E4-445D-A88F-8AEE25AFA590}"/>
-    <hyperlink ref="A30" r:id="rId29" display="http://www.kitchenpride.com/" xr:uid="{1457E788-4CB3-4922-9B05-4000E0C3B90E}"/>
-    <hyperlink ref="A31" r:id="rId30" display="http://www.legionathletics.com/" xr:uid="{FD8264AB-26C7-4812-9B10-5A723709DA7B}"/>
-    <hyperlink ref="A32" r:id="rId31" display="http://www.mcifoods.com/" xr:uid="{C8CC07DE-934C-4BE4-BE87-765C61E947ED}"/>
-    <hyperlink ref="A33" r:id="rId32" display="http://www.moleaer.com/" xr:uid="{8A36BE6E-6A28-46E4-A5ED-7319FB937516}"/>
-    <hyperlink ref="A34" r:id="rId33" display="http://www.natran.com/" xr:uid="{5A6952DD-32AA-4AC1-BA41-395A8A485F38}"/>
-    <hyperlink ref="A35" r:id="rId34" display="http://www.naturalepicurean.com/" xr:uid="{D705D332-C8CC-48AF-BA3A-D7A83DBD812D}"/>
-    <hyperlink ref="A36" r:id="rId35" display="http://www.natural-habitats.com/" xr:uid="{6C0524CE-C981-4E77-B2DE-6A3858D7F4E6}"/>
-    <hyperlink ref="A37" r:id="rId36" display="http://www.nighthawkfoods.com/" xr:uid="{9287946B-D015-4875-ACB3-013916A4EA28}"/>
-    <hyperlink ref="A38" r:id="rId37" display="http://www.seniormeals.org/" xr:uid="{E7B0F000-C75D-4C33-9AB6-CC73F8EDF6EC}"/>
-    <hyperlink ref="A39" r:id="rId38" display="http://www.odysseyrf.com/" xr:uid="{119BDCFF-15DA-4432-AF4D-2C8D8E2E979D}"/>
-    <hyperlink ref="A40" r:id="rId39" display="http://www.pacificfarms.com/" xr:uid="{16AB4FEA-8264-4DB2-9F35-445849AC4C09}"/>
-    <hyperlink ref="A41" r:id="rId40" display="http://www.passionatepennypincher.com/" xr:uid="{3E3B1C95-8279-4AD1-A3B6-BDC3FF2BF864}"/>
-    <hyperlink ref="A42" r:id="rId41" display="http://www.pegasusfoodsinc.com/" xr:uid="{0272A1AE-AD60-46E3-964C-444030740DDC}"/>
-    <hyperlink ref="A43" r:id="rId42" display="http://www.personaltrainerfood.com/" xr:uid="{D6573257-AB42-4058-A43D-F7A0B29444FF}"/>
-    <hyperlink ref="A44" r:id="rId43" display="http://www.phoeniciafoods.com/" xr:uid="{B07D90A6-9406-4B87-98A0-53E0942DA153}"/>
-    <hyperlink ref="A45" r:id="rId44" display="http://www.pipedreamlabs.co/" xr:uid="{7BB124E1-5540-4645-9B80-51F2F90888F2}"/>
-    <hyperlink ref="A46" r:id="rId45" display="http://www.plainsdairy.com/" xr:uid="{BD60D88A-09AD-4EEB-A6B2-DCDF4271E74D}"/>
-    <hyperlink ref="A47" r:id="rId46" display="http://www.proplasticsinc.com/" xr:uid="{DB9F139D-C5E6-4F94-8F36-64DCA670B2DD}"/>
-    <hyperlink ref="A48" r:id="rId47" display="http://www.psiurethanes.com/" xr:uid="{86F5CD2C-7781-498E-9A7C-EF10258F846E}"/>
-    <hyperlink ref="A49" r:id="rId48" display="http://www.rheom.com/" xr:uid="{1C20C989-9C0D-4464-9830-5809FAD71BD0}"/>
-    <hyperlink ref="A50" r:id="rId49" display="http://www.rockwalledc.com/" xr:uid="{6C76B08A-3846-4FDC-9A54-749A03AFBCC4}"/>
-    <hyperlink ref="A51" r:id="rId50" display="http://www.roland-realty.com/" xr:uid="{58D385D3-35D7-46B2-9246-39976E5E1511}"/>
-    <hyperlink ref="A52" r:id="rId51" display="http://www.specialtyfoodpartners.com/" xr:uid="{D34FF602-E728-481A-A364-9CC54EEF25BA}"/>
-    <hyperlink ref="A53" r:id="rId52" display="http://www.simberobotics.com/" xr:uid="{C8C18EDD-8AEF-480A-8137-2ED8EE087F73}"/>
-    <hyperlink ref="A54" r:id="rId53" display="http://www.solais.com/" xr:uid="{763C608E-CF16-4F28-A31B-415B61E804DF}"/>
-    <hyperlink ref="A55" r:id="rId54" display="http://www.specialtypackaging.net/" xr:uid="{4BB9A306-CDE1-4C51-9A44-6DEB376B974A}"/>
-    <hyperlink ref="A56" r:id="rId55" display="http://www.spiriti.com/" xr:uid="{7D6BBCD1-EB9E-40B0-9F9F-4F299061D510}"/>
-    <hyperlink ref="A57" r:id="rId56" display="http://www.starbrokerage.com/" xr:uid="{F043512B-88FB-40AE-8CFB-559B0306BFF6}"/>
-    <hyperlink ref="A58" r:id="rId57" display="http://www.sundanceconstructioncompany.com/" xr:uid="{44425AAB-478E-48FA-9F97-B0D3C146E71C}"/>
-    <hyperlink ref="A59" r:id="rId58" display="http://www.texas-wholesale.com/" xr:uid="{E2A50D20-A057-4A28-B741-59D6A1A9E4F6}"/>
-    <hyperlink ref="A60" r:id="rId59" display="http://www.fricksco.com/" xr:uid="{9ED08AE0-E3C5-4D6C-96F1-45C75380EAA1}"/>
-    <hyperlink ref="A61" r:id="rId60" display="http://www.rainiercompanies.com/" xr:uid="{34D17A44-E6E3-47C7-896E-E01E3E00560A}"/>
-    <hyperlink ref="A62" r:id="rId61" display="http://www.thesurvivalpodcast.com/" xr:uid="{67591496-4D8F-4902-BD58-93E6F49C8409}"/>
-    <hyperlink ref="A63" r:id="rId62" display="http://www.valleycold.com/" xr:uid="{FDED28D9-F833-4393-9F2F-012FE497A93D}"/>
-    <hyperlink ref="A64" r:id="rId63" display="http://www.versacor.com/" xr:uid="{F054F389-9963-410A-AF2F-46B087F0B548}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://welcomebabyusa.org/" xr:uid="{CB539585-0C9D-42CA-937B-87E558414508}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://weirdsistersfreakboutique.com/" xr:uid="{24C1EAD3-665F-46C9-8118-6C971370FF25}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://wetpeachswimwear.com/" xr:uid="{FE0F3301-B3E1-411E-B089-798E64A97AEE}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://wexist.com/" xr:uid="{47F700B2-3FC4-4D94-B31C-F6051A324600}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://westernwelderoutfitting.com/" xr:uid="{12CC4664-4BC1-4274-BE07-B4D3FED3561B}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://wellbredonline.com/" xr:uid="{E8516016-1A67-42CB-BB48-2F1E0ABBDE8C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://whensmokeclears.com/" xr:uid="{1A882B72-0B90-48E8-B54A-6CDD349DB75E}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://weworewhat.com/" xr:uid="{E68181B9-4DD7-45DC-8E69-CA5B1A2F6716}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://whatsyourhustle.com/" xr:uid="{662B4A47-1B98-468E-A7C9-6D8363CC5D7D}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://wethepeopleholsters.com/" xr:uid="{D90A92D2-9EB4-4200-A536-FF8DA5810517}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://westxeast.com/" xr:uid="{8307D872-9D59-4314-A449-3504A53E2DAE}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://wellspringinterfaith.org/" xr:uid="{E185506A-0F8B-466E-8ED9-F20E12D752B9}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://weestees.com/" xr:uid="{FFCB5F59-8F01-4E8C-899E-DF34C1FBB28A}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://westernprotectivesolutions.com/" xr:uid="{A10BE26B-729E-479C-BE8A-D447F4AC44F7}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://wrenglory.com/" xr:uid="{BCC335B0-4155-4D40-9A93-FCBC11AAF0A0}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://whitelabelmfg.com/" xr:uid="{E96FD082-C5F6-4B59-8454-041E7E750DFD}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://wisetailor.com/" xr:uid="{A814805A-9220-41B8-9A4A-86752137DF3E}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://whitesidesboots.com/" xr:uid="{151479AE-01CF-434B-9F03-542D5BEE34C8}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://daytontailor.com/" xr:uid="{76B9941D-E6AD-42E1-A588-ADC2405F402F}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://wowserswebdesign.com/" xr:uid="{EE0CD1AD-87F2-4886-A3A2-C309529585BB}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://worldclassrenewables.com/" xr:uid="{6BE6D7D4-5EB1-43EE-99B6-99A50F7C354D}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://willhelpu.com/" xr:uid="{2CFD088B-91B3-40B9-B13F-763CDB76975B}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://worldclassclothing.com/" xr:uid="{F91AD700-A4FD-4A29-9F2D-2CD22AFA1212}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://wwsport.com/" xr:uid="{D1D409A3-4376-4321-826D-2FBDDEA7E45E}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://whitewolfmn.com/" xr:uid="{2A90375F-0978-4F3C-9B92-AB7743839BC7}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://wintergreennorthernwear.com/" xr:uid="{C978BF9D-A14C-4779-A481-9CF65504FF36}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://willynillytrading.com/" xr:uid="{10C43C1F-013F-4469-B8AF-ED7020BBD3F7}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://worlddanceapparel.com/" xr:uid="{2F1B776A-BADE-45FC-816D-F2C2FA21B4D6}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://wrappedinlove.com/" xr:uid="{6A566B70-FA31-4051-9701-597469BCB1AC}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://wisetrailrunning.com/" xr:uid="{509AC58E-4767-4178-9A55-3D877FAFDB17}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://woofconcept.com/" xr:uid="{6BA7555C-FEF7-4267-9F3B-00B55C633C63}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://wornbrand.com/" xr:uid="{A76582F9-9C3C-4705-8938-CA646CD0CD90}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://woodiesclothing.com/" xr:uid="{DFC639DC-A2EF-4ADD-93C4-F7AD82E1357C}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://wuruwool.com/" xr:uid="{648CFB28-7863-48A1-B816-17A56E664FCF}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://xhibition.com/" xr:uid="{5C76D3F6-516A-48B9-9287-D904306A87D5}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://yearofours.com/" xr:uid="{B878CAE6-FFB0-4C72-978B-792D4703B3AF}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://xangonurture.com/" xr:uid="{1976ADEE-9086-4B20-8F95-A6B10D923E1F}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://yella-activewear.com/" xr:uid="{0EED72DC-88E2-4564-9B2E-EFBAD6E6F84D}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://trendia.co/" xr:uid="{F5AE0938-B769-42AE-813B-B5A74FD009F4}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://wundersocks.com/" xr:uid="{37EF921D-B3F5-461C-9E05-50E3281F9CBE}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://ximonlee.com/" xr:uid="{E2E1337C-DC0A-4911-AAA3-5B3DA6D3AC89}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://yllwthelabel.com/" xr:uid="{775C6EA1-2238-4D78-A30D-E70CD2937AE5}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://wynwoodtailors.com/" xr:uid="{799BD473-8295-4DBF-BA4D-CECB58C02F63}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://wubbiestudio.com/" xr:uid="{B950E580-9EFE-4707-AF20-2AA414082852}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://yomaui.com/" xr:uid="{F03BAB38-9B46-4DD2-9349-A250D2EFD4AA}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://yesweprint.com/" xr:uid="{41801C0E-9CD2-4AE3-A584-960B1DB0CC3E}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://shopwunderkind.com/" xr:uid="{12BF7F99-C5F7-4E08-BF6E-82301930D178}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://yesterday.rip/" xr:uid="{37AA949E-1981-4CC8-ACB1-CCFB243709C9}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://wsisports.com/" xr:uid="{E86F93D2-6E08-49A6-A892-36D31361C7DD}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://yalimilano.com/" xr:uid="{5C74A7BF-E3F4-4BA1-8B45-A528122AC8FC}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://yogademocracy.com/" xr:uid="{4B0D92ED-1109-4599-97F6-629E89F6D0EF}"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://xengaming.co/" xr:uid="{EE3D68E1-449A-4F51-858C-E05EB6F77021}"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://yardabraawd.com/" xr:uid="{89F71430-E534-48C9-A922-8A211ECFDCB5}"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://shopyandi.com/" xr:uid="{1D87E721-3D79-48CD-8F5A-A6389B458CCB}"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://y2house.com/" xr:uid="{ECAF4BE7-311D-4509-AE87-BBB7C8D160C5}"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://yarashoemaker.com/" xr:uid="{C82E144F-0276-441A-9BD1-5ADC576579BD}"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://yukaparis.fr/" xr:uid="{2DFE4E4B-C881-4FE8-9E68-BCAD56946A40}"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://zerofoxtrot.com/" xr:uid="{C936FBBC-ECAD-449A-B7BF-0644E553189B}"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://zhilyova.com/" xr:uid="{F1CF144E-4F4B-4AF6-9062-177F5F1EA75A}"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://yourhighnessclothing.com/" xr:uid="{C64430ED-0922-4320-BED8-62380071B1D3}"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://ywca-gcr.org/" xr:uid="{FA06DF0B-5ED4-450F-B32B-40985E193B8C}"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://zealousclothing.de/" xr:uid="{D22B09E9-62D0-4906-B9B6-4BF5F105A0BF}"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://zebel.co.uk/" xr:uid="{3BF11FF7-D513-4B30-93C9-7F0BFC85C3EE}"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://zipease.com/" xr:uid="{FF7C7ED0-6043-4BF0-BD97-63C9682E72EC}"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://yomismaclothing.com/" xr:uid="{A429537A-F7CE-45EF-A0B3-522557477280}"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://yourmarkpromo.com/" xr:uid="{9CF3D6AE-CF3B-450A-82F3-7A7480A9F08F}"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://yiworks.com/" xr:uid="{316E16CB-BB12-4007-B212-3FDAC4391953}"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://yogarosa.com/" xr:uid="{26D84A9B-9515-4033-AEBA-32B9B1DA1E97}"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://yourshoppingdepot.com/" xr:uid="{607591D9-4BE3-4219-B983-07723CA5F6FA}"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://yolocolorado.com/" xr:uid="{8360524E-0EEE-403C-A67A-0B211AA3C71E}"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://zearly.com/" xr:uid="{195172B4-1488-43CE-8932-AFA4B7E24AA2}"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://shopyouer.com/" xr:uid="{24A58C73-A26C-41D8-9215-46105F001EB3}"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://zcrave.com/" xr:uid="{3223B132-820A-49D6-BB91-6B211D3182C9}"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://zensah.com/" xr:uid="{0123DBC4-51A5-4A6F-9D76-034C25345E4D}"/>
+    <hyperlink ref="A76" r:id="rId75" display="https://zavate.company/" xr:uid="{ECCBAE6E-1E1F-4171-BBB0-74EDE9900D46}"/>
+    <hyperlink ref="A77" r:id="rId76" display="https://zedd.net/" xr:uid="{354A3E30-6DED-4EF5-A113-ED66360AAF7B}"/>
+    <hyperlink ref="A78" r:id="rId77" display="https://zippileather.com/" xr:uid="{8159A78A-7C6E-4CC7-96B0-64150F6BCA5B}"/>
+    <hyperlink ref="A79" r:id="rId78" display="https://yogiiza.com/" xr:uid="{10D82E1C-0EC0-48EE-B5EB-6FD2F1268BFB}"/>
+    <hyperlink ref="A80" r:id="rId79" display="https://zesttorganics.com/" xr:uid="{768D955B-2D77-4B89-A7D0-45C0319CE427}"/>
+    <hyperlink ref="A81" r:id="rId80" display="https://zeusyunlimited.com/" xr:uid="{D5548C6E-F1B4-4A7C-A0DE-7E91867C28AC}"/>
+    <hyperlink ref="A82" r:id="rId81" display="https://zzzs.art/" xr:uid="{737FF1C9-D731-478D-82B9-D8D886448857}"/>
+    <hyperlink ref="A83" r:id="rId82" display="https://zoic.com/" xr:uid="{241E366C-B7EC-4781-9334-23EDF5499FEF}"/>
+    <hyperlink ref="A84" r:id="rId83" display="https://zows.co/" xr:uid="{B73C2190-13A0-4B60-96CA-886A19346BE8}"/>
+    <hyperlink ref="A85" r:id="rId84" display="https://zonarch.com/" xr:uid="{D41E6D4D-64B3-49E8-901E-FE906FE29C35}"/>
+    <hyperlink ref="A86" r:id="rId85" display="https://zush.com.my/" xr:uid="{B1EA771B-10D9-446A-ADF6-B5CB71099F5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
